--- a/figures and tables/tables.xlsx
+++ b/figures and tables/tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="head_width" sheetId="1" r:id="rId1"/>
@@ -193,11 +193,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +449,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Kancelář">
       <a:dk1>
@@ -507,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,9 +539,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,6 +574,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kancelář">
@@ -748,21 +750,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
@@ -771,7 +773,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -788,7 +790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -805,7 +807,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -822,7 +824,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -839,7 +841,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -853,21 +855,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
@@ -877,7 +879,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -897,7 +899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>29</v>
       </c>
@@ -917,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -937,7 +939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
@@ -957,7 +959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -965,7 +967,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -979,21 +981,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1005,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1026,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -1045,7 +1047,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
@@ -1066,7 +1068,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1089,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1110,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1117,7 +1119,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1126,7 +1128,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1141,14 +1143,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1158,7 +1158,7 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
